--- a/mh16/映射.xlsx
+++ b/mh16/映射.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\stm32\f407\openFFB\mh16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAD9522-A3BF-45E2-B5B4-A1805172B211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1244D8F2-965E-47B7-933C-4009D7C284FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14317" yWindow="0" windowWidth="14565" windowHeight="15563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14362" yWindow="3750" windowWidth="20086" windowHeight="9278" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
   <si>
     <t>按键对应数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -446,7 +446,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C2, LEN(C2)-2)), "00000000")</f>
+        <f t="shared" ref="D2:D31" si="0">TEXT(HEX2BIN(RIGHT(C2, LEN(C2)-2)), "00000000")</f>
         <v>11111110</v>
       </c>
     </row>
@@ -461,7 +461,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C3, LEN(C3)-2)), "00000000")</f>
+        <f t="shared" si="0"/>
         <v>11110111</v>
       </c>
     </row>
@@ -476,7 +476,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C4, LEN(C4)-2)), "00000000")</f>
+        <f t="shared" si="0"/>
         <v>11101111</v>
       </c>
     </row>
@@ -491,7 +491,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C5, LEN(C5)-2)), "00000000")</f>
+        <f t="shared" si="0"/>
         <v>11011111</v>
       </c>
     </row>
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C6, LEN(C6)-2)), "00000000")</f>
+        <f t="shared" si="0"/>
         <v>10111111</v>
       </c>
     </row>
@@ -521,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C7, LEN(C7)-2)), "00000000")</f>
+        <f t="shared" si="0"/>
         <v>01111110</v>
       </c>
     </row>
@@ -536,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C8, LEN(C8)-2)), "00000000")</f>
+        <f t="shared" si="0"/>
         <v>11101111</v>
       </c>
     </row>
@@ -551,7 +551,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C9, LEN(C9)-2)), "00000000")</f>
+        <f t="shared" si="0"/>
         <v>11011111</v>
       </c>
     </row>
@@ -566,7 +566,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C10, LEN(C10)-2)), "00000000")</f>
+        <f t="shared" si="0"/>
         <v>10111111</v>
       </c>
     </row>
@@ -581,7 +581,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C11, LEN(C11)-2)), "00000000")</f>
+        <f t="shared" si="0"/>
         <v>01111111</v>
       </c>
     </row>
@@ -596,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C12, LEN(C12)-2)), "00000000")</f>
+        <f t="shared" si="0"/>
         <v>11111110</v>
       </c>
     </row>
@@ -611,7 +611,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C13, LEN(C13)-2)), "00000000")</f>
+        <f t="shared" si="0"/>
         <v>11111101</v>
       </c>
     </row>
@@ -626,7 +626,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C14, LEN(C14)-2)), "00000000")</f>
+        <f t="shared" si="0"/>
         <v>11111011</v>
       </c>
     </row>
@@ -641,7 +641,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C15, LEN(C15)-2)), "00000000")</f>
+        <f t="shared" si="0"/>
         <v>11110111</v>
       </c>
     </row>
@@ -656,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C16, LEN(C16)-2)), "00000000")</f>
+        <f t="shared" si="0"/>
         <v>11101111</v>
       </c>
     </row>
@@ -671,7 +671,7 @@
         <v>7</v>
       </c>
       <c r="D17" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C17, LEN(C17)-2)), "00000000")</f>
+        <f t="shared" si="0"/>
         <v>11011111</v>
       </c>
     </row>
@@ -686,7 +686,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C18, LEN(C18)-2)), "00000000")</f>
+        <f t="shared" si="0"/>
         <v>10111111</v>
       </c>
     </row>
@@ -701,7 +701,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C19, LEN(C19)-2)), "00000000")</f>
+        <f t="shared" si="0"/>
         <v>01111111</v>
       </c>
     </row>
@@ -716,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="D20" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C20, LEN(C20)-2)), "00000000")</f>
+        <f t="shared" si="0"/>
         <v>11111101</v>
       </c>
     </row>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="D21" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C21, LEN(C21)-2)), "00000000")</f>
+        <f t="shared" si="0"/>
         <v>11111011</v>
       </c>
     </row>
@@ -746,7 +746,7 @@
         <v>7</v>
       </c>
       <c r="D22" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C22, LEN(C22)-2)), "00000000")</f>
+        <f t="shared" si="0"/>
         <v>11011111</v>
       </c>
     </row>
@@ -761,7 +761,7 @@
         <v>6</v>
       </c>
       <c r="D23" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C23, LEN(C23)-2)), "00000000")</f>
+        <f t="shared" si="0"/>
         <v>11101111</v>
       </c>
     </row>
@@ -776,7 +776,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C24, LEN(C24)-2)), "00000000")</f>
+        <f t="shared" si="0"/>
         <v>11110111</v>
       </c>
     </row>
@@ -791,7 +791,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C25, LEN(C25)-2)), "00000000")</f>
+        <f t="shared" si="0"/>
         <v>10111111</v>
       </c>
     </row>
@@ -806,7 +806,7 @@
         <v>11</v>
       </c>
       <c r="D26" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C26, LEN(C26)-2)), "00000000")</f>
+        <f t="shared" si="0"/>
         <v>11111101</v>
       </c>
     </row>
@@ -821,8 +821,68 @@
         <v>3</v>
       </c>
       <c r="D27" t="str">
-        <f>TEXT(HEX2BIN(RIGHT(C27, LEN(C27)-2)), "00000000")</f>
+        <f t="shared" si="0"/>
         <v>11111110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>11111110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>11111101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>11111011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>11110111</v>
       </c>
     </row>
   </sheetData>
